--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/InventoryControlTable.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/InventoryControlTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasah\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627BA50E-FE1E-46E4-9541-BD41B0DAB442}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17FABE4-EF3A-4232-8F8D-293562CD41F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E26595CB-62ED-456B-A6CE-80C682B8DB93}"/>
   </bookViews>
@@ -119,7 +119,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -136,6 +136,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -452,21 +458,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20561863-5DDA-41FE-8A89-7415294960B9}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="16.375" style="1" customWidth="1"/>
-    <col min="3" max="7" width="16.375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
+    <col min="3" max="7" width="15.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -481,8 +489,9 @@
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -490,13 +499,14 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="2"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/InventoryControlTable.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/InventoryControlTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasah\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17FABE4-EF3A-4232-8F8D-293562CD41F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8B17F5-AD7C-4A32-B043-75EAF2F0F04A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E26595CB-62ED-456B-A6CE-80C682B8DB93}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E26595CB-62ED-456B-A6CE-80C682B8DB93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -135,13 +135,22 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,55 +467,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20561863-5DDA-41FE-8A89-7415294960B9}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
-    <col min="3" max="7" width="15.125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="3" max="4" width="15.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="2"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/InventoryControlTable.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/InventoryControlTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasah\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t.tateiwa\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8B17F5-AD7C-4A32-B043-75EAF2F0F04A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43BDA3A-90ED-4BF9-8785-310A9F98E41A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E26595CB-62ED-456B-A6CE-80C682B8DB93}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" xr2:uid="{E26595CB-62ED-456B-A6CE-80C682B8DB93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,6 +54,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -129,28 +132,28 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -467,54 +470,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20561863-5DDA-41FE-8A89-7415294960B9}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="10.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="15.125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="7" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="10" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.4" thickTop="1" x14ac:dyDescent="0.7">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.7">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.7">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.7">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.7">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.7">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.7">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.7">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.7">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.7">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.7">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.7">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.7">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.7">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.7">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/InventoryControlTable.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/InventoryControlTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t.tateiwa\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasah\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43BDA3A-90ED-4BF9-8785-310A9F98E41A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17FABE4-EF3A-4232-8F8D-293562CD41F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" xr2:uid="{E26595CB-62ED-456B-A6CE-80C682B8DB93}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E26595CB-62ED-456B-A6CE-80C682B8DB93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,7 +119,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -132,28 +129,19 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -470,284 +458,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20561863-5DDA-41FE-8A89-7415294960B9}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="3" max="7" width="15.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="9" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="15.4" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.7">
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.7">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.7">
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.7">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.7">
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.7">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.7">
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.7">
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.7">
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.7">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.7">
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.7">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.7">
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.7">
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/InventoryControlTable.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/InventoryControlTable.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasah\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAOATO\source\repos\his_shimada\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17FABE4-EF3A-4232-8F8D-293562CD41F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E26595CB-62ED-456B-A6CE-80C682B8DB93}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>メーカー</t>
     <phoneticPr fontId="1"/>
@@ -49,23 +48,56 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>倉庫</t>
+  </si>
+  <si>
+    <t>入出庫種別</t>
+  </si>
+  <si>
+    <t>伝票番号</t>
+  </si>
+  <si>
+    <t>入出庫日</t>
+  </si>
+  <si>
+    <t>入庫数量</t>
+  </si>
+  <si>
+    <t>出庫数量</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>入庫単価</t>
+  </si>
+  <si>
+    <t>出庫単価</t>
+  </si>
+  <si>
+    <t>在庫数</t>
+  </si>
+  <si>
+    <t>取引先</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -73,7 +105,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -119,7 +151,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -135,18 +167,27 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -457,57 +498,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20561863-5DDA-41FE-8A89-7415294960B9}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
-    <col min="3" max="7" width="15.125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="7" width="8.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="5" customWidth="1"/>
+    <col min="9" max="14" width="8.7109375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="E1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="12.75" thickTop="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="2"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:I1"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
